--- a/数据整理/stocks/A股/深证主板/002196-方正电机.xlsx
+++ b/数据整理/stocks/A股/深证主板/002196-方正电机.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>基金代码</t>
   </si>
@@ -22,12 +22,18 @@
     <t>基金名称</t>
   </si>
   <si>
+    <t>基金金额</t>
+  </si>
+  <si>
     <t>股票总仓位</t>
   </si>
   <si>
     <t>仓位占比</t>
   </si>
   <si>
+    <t>持有市值(亿元)</t>
+  </si>
+  <si>
     <t>仓位排名</t>
   </si>
   <si>
@@ -37,10 +43,16 @@
     <t>华安文体健康主题灵活配置混合</t>
   </si>
   <si>
+    <t>3.91</t>
+  </si>
+  <si>
     <t>86.68</t>
   </si>
   <si>
     <t>2.12</t>
+  </si>
+  <si>
+    <t>0.0829</t>
   </si>
 </sst>
 </file>
@@ -398,13 +410,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -420,24 +432,36 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2">
         <v>10</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002196-方正电机.xlsx
+++ b/数据整理/stocks/A股/深证主板/002196-方正电机.xlsx
@@ -1,90 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="2021-Q1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
-  <si>
-    <t>基金代码</t>
-  </si>
-  <si>
-    <t>基金名称</t>
-  </si>
-  <si>
-    <t>基金金额</t>
-  </si>
-  <si>
-    <t>股票总仓位</t>
-  </si>
-  <si>
-    <t>仓位占比</t>
-  </si>
-  <si>
-    <t>持有市值(亿元)</t>
-  </si>
-  <si>
-    <t>仓位排名</t>
-  </si>
-  <si>
-    <t>001532</t>
-  </si>
-  <si>
-    <t>华安文体健康主题灵活配置混合</t>
-  </si>
-  <si>
-    <t>3.91</t>
-  </si>
-  <si>
-    <t>86.68</t>
-  </si>
-  <si>
-    <t>2.12</t>
-  </si>
-  <si>
-    <t>0.0829</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -107,21 +68,97 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -409,63 +446,147 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001532</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安文体健康主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.68</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0829</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002196-方正电机.xlsx
+++ b/数据整理/stocks/A股/深证主板/002196-方正电机.xlsx
@@ -561,12 +561,12 @@
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>持有市值(亿元)</t>
         </is>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002196-方正电机.xlsx
+++ b/数据整理/stocks/A股/深证主板/002196-方正电机.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -545,7 +546,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -556,17 +557,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -576,13 +597,179 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>001532</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安文体健康主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>87.24</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.0850</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>012005</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>信达澳银恒盛混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>31.90</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>012006</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>信达澳银恒盛混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>31.90</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>1</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>0.08</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002196-方正电机.xlsx
+++ b/数据整理/stocks/A股/深证主板/002196-方正电机.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -716,7 +717,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -727,17 +728,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -747,14 +768,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.1</v>
+          <t>001532</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安文体健康主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>51.50</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.14</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.3338</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -763,13 +806,537 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>519908</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏兴华混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10.77</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>81.18</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4771</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>960004</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏兴华混合H</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>10.77</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>81.18</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4771</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>013116</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华安文体健康主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.14</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1267</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>003655</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>信达澳银新财富灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.95</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>45.05</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1038</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001403</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>招商国企改革主题混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.71</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0864</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002271</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>招商安弘灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.85</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0250</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002018</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>鹏华弘安灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>21.66</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0208</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011052</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鹏华弘裕一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>25.99</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001190</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>鹏华弘润灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>25.00</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002019</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>鹏华弘安灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>21.66</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011053</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>鹏华弘裕一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>25.99</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001191</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>鹏华弘润灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>25.00</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>13</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.69</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>1</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>0.08</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002196-方正电机.xlsx
+++ b/数据整理/stocks/A股/深证主板/002196-方正电机.xlsx
@@ -6,10 +6,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,95 +453,635 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001532</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华安文体健康主题灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>3.91</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>86.68</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.12</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0829</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>13</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.69</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.08</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001532</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安文体健康主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>51.50</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.14</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.3338</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>519908</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏兴华混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10.77</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>81.18</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4771</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>960004</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏兴华混合H</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>10.77</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>81.18</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4771</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>013116</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华安文体健康主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.14</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1267</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>003655</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>信达澳银新财富灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.95</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>45.05</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1038</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001403</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>招商国企改革主题混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.71</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0864</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002271</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>招商安弘灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.85</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0250</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002018</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>鹏华弘安灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>21.66</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0208</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011052</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鹏华弘裕一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>25.99</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001190</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>鹏华弘润灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>25.00</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002019</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>鹏华弘安灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>21.66</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011053</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>鹏华弘裕一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>25.99</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001191</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>鹏华弘润灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>25.00</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -711,59 +1251,59 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="G1" s="2" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="2" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -778,569 +1318,29 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>51.50</t>
+          <t>3.91</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>90.14</t>
+          <t>86.68</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.59</t>
+          <t>2.12</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.3338</t>
+          <t>0.0829</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>519908</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>华夏兴华混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>10.77</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>81.18</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.43</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.4771</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>960004</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>华夏兴华混合H</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>10.77</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>81.18</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.43</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.4771</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>013116</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>华安文体健康主题灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>4.89</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>90.14</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.59</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.1267</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>003655</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>信达澳银新财富灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>8.95</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>45.05</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>1.16</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.1038</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>001403</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>招商国企改革主题混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>2.25</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>88.71</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.84</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0864</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>002271</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>招商安弘灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.59</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>89.85</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>4.23</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0250</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>002018</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>鹏华弘安灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>4.17</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>21.66</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>0.50</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0208</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>011052</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>鹏华弘裕一年持有期混合A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>2.02</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>25.99</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>0.78</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0158</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>001190</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>鹏华弘润灵活配置混合 - A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>2.32</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>25.00</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>0.68</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0158</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>002019</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>鹏华弘安灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.54</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>21.66</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>0.50</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0027</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>011053</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>鹏华弘裕一年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.18</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>25.99</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>0.78</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0014</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>001191</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>鹏华弘润灵活配置混合 - C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.17</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>25.00</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>0.68</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0012</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>10</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>13</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.69</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.08</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002196-方正电机.xlsx
+++ b/数据整理/stocks/A股/深证主板/002196-方正电机.xlsx
@@ -7,9 +7,10 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,14 +485,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D2" t="n">
-        <v>2.69</v>
+        <v>1.92</v>
       </c>
     </row>
     <row r="3">
@@ -500,14 +501,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D3" t="n">
-        <v>2.1</v>
+        <v>2.69</v>
       </c>
     </row>
     <row r="4">
@@ -516,13 +517,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>1</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -532,6 +549,404 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001532</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安文体健康主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>42.79</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.37</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0655</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002229</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏经济转型股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>12.47</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.35</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4327</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006868</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏科技成长股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.33</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2320</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>013116</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华安文体健康主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.37</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1036</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>013877</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>财通资管新能源汽车混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0500</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001352</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>民生加银新战略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>46.20</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0253</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>013876</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>财通资管新能源汽车混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009054</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>圆信永丰沣泰混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>26.81</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011391</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>民生加银新战略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>46.20</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1081,7 +1496,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1251,7 +1666,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/002196-方正电机.xlsx
+++ b/数据整理/stocks/A股/深证主板/002196-方正电机.xlsx
@@ -7,10 +7,11 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,14 +486,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>1.92</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="3">
@@ -501,14 +502,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D3" t="n">
-        <v>2.69</v>
+        <v>1.92</v>
       </c>
     </row>
     <row r="4">
@@ -517,14 +518,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D4" t="n">
-        <v>2.1</v>
+        <v>2.69</v>
       </c>
     </row>
     <row r="5">
@@ -533,13 +534,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>1</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -549,6 +566,214 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002229</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏经济转型股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>11.39</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.49</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3873</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006868</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏科技成长股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.93</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2081</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>013877</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>财通资管新能源汽车混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0323</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>013876</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>财通资管新能源汽车混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -946,7 +1171,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1496,7 +1721,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1666,7 +1891,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
